--- a/results/input_sweep_r17/h2000_M0.25_R1000km_PL700kg/ReqPowDATA.xlsx
+++ b/results/input_sweep_r17/h2000_M0.25_R1000km_PL700kg/ReqPowDATA.xlsx
@@ -486,10 +486,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>59.54741179379083</v>
+        <v>59.31942072570862</v>
       </c>
       <c r="F2" t="n">
-        <v>59.54741179379083</v>
+        <v>59.31942072570862</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -511,10 +511,10 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>119.0948235875817</v>
+        <v>118.6388414514172</v>
       </c>
       <c r="F3" t="n">
-        <v>119.0948235875817</v>
+        <v>118.6388414514172</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1154.15228624815</v>
+        <v>1149.733344896573</v>
       </c>
       <c r="F4" t="n">
-        <v>867.5030247136089</v>
+        <v>864.1815996491923</v>
       </c>
       <c r="G4" t="n">
-        <v>286.6492615345408</v>
+        <v>285.5517452473811</v>
       </c>
     </row>
     <row r="5">
@@ -561,13 +561,13 @@
         <v>5.047445992327883</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.948235875816</v>
+        <v>1186.388414514172</v>
       </c>
       <c r="F5" t="n">
-        <v>895.1945068707995</v>
+        <v>891.7670607779194</v>
       </c>
       <c r="G5" t="n">
-        <v>295.753729005017</v>
+        <v>294.621353736253</v>
       </c>
     </row>
     <row r="6">
@@ -586,10 +586,10 @@
         <v>182.5488694356231</v>
       </c>
       <c r="E6" t="n">
-        <v>473.1129664215761</v>
+        <v>471.3018079037355</v>
       </c>
       <c r="F6" t="n">
-        <v>473.1129664215761</v>
+        <v>471.3018079037355</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -611,10 +611,10 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>473.1058857024236</v>
+        <v>377.0358032261291</v>
       </c>
       <c r="F7" t="n">
-        <v>473.1058857024236</v>
+        <v>377.0358032261291</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
